--- a/Paper/Supplementary File 1.xlsx
+++ b/Paper/Supplementary File 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theodoramautz/Desktop/SIO/Research/baja_edna/baja_edna_git/Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90F966C-9848-EB45-B1D1-C5EA0D8366B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4186B26-DA0E-D649-8AD4-BC1FC201071D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35760" yWindow="2520" windowWidth="27640" windowHeight="15560" xr2:uid="{307DFD20-AB3A-D94A-8C7C-668065A06CE6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="86">
   <si>
     <t>Abudefduf vaigiensis</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Umbrina roncador</t>
   </si>
   <si>
-    <t>Scientific Name</t>
-  </si>
-  <si>
     <t>Documented in Gulf of CA?</t>
   </si>
   <si>
@@ -292,6 +289,12 @@
   </si>
   <si>
     <t>Zalophus californianus</t>
+  </si>
+  <si>
+    <t>Final PEDS Species</t>
+  </si>
+  <si>
+    <t>Original PEDS Species</t>
   </si>
 </sst>
 </file>
@@ -675,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDDA97F-7049-9A45-872F-5E0A93397064}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,63 +693,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>68</v>
@@ -754,15 +749,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>68</v>
@@ -770,23 +765,23 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>68</v>
@@ -794,15 +789,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>68</v>
@@ -810,127 +805,127 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>68</v>
@@ -938,167 +933,167 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>68</v>
@@ -1106,31 +1101,31 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>68</v>
@@ -1138,103 +1133,103 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>68</v>
@@ -1242,47 +1237,55 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E78">
-    <sortCondition ref="A2:A78"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E79">
+    <sortCondition ref="A3:A79"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1290,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F980BCB2-0E9E-094F-B8D0-04CAEDF6C261}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1305,47 +1308,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>68</v>
@@ -1353,15 +1348,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>68</v>
@@ -1369,23 +1364,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>68</v>
@@ -1393,55 +1388,55 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>68</v>
@@ -1449,63 +1444,63 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>68</v>
@@ -1513,135 +1508,135 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>68</v>
@@ -1649,23 +1644,23 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>68</v>
@@ -1673,15 +1668,15 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>68</v>
@@ -1689,23 +1684,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>68</v>
@@ -1713,39 +1708,39 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>68</v>
@@ -1753,63 +1748,63 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>68</v>
@@ -1817,26 +1812,34 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>69</v>
+      <c r="B68" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
